--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1559348.012021438</v>
+        <v>1634877.681686243</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>151.6179615784306</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>334.8396426569627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>160.1743669966224</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>175.7939063102969</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>307.1861186321483</v>
+        <v>161.2000559090907</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>95.33023562355962</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>68.49439899867242</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>257.0152846411281</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>224.1239018360523</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.81671766694123</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>121.0252690996993</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.56452900498746</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>5.107731335945625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4681487101245</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>72.98026666010625</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>34.86413021891121</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>234.1231749377856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>21.96549637701692</v>
       </c>
       <c r="G25" t="n">
-        <v>38.32245203044996</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>33.63458695168132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>13.07450385695442</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>29.6232424922411</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>147.4019814764075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>155.8385935972313</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>256.111763886877</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>33.25293539638682</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>33.35146980185879</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>945.273062713798</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>534.2871579241905</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2140.292562720626</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="E5" t="n">
-        <v>1193.181703431127</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="F5" t="n">
-        <v>782.1957986415193</v>
+        <v>788.2011052291998</v>
       </c>
       <c r="G5" t="n">
-        <v>364.2319905397062</v>
+        <v>370.2372971273867</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>319.1723320447962</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>150.2361491168893</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>313.5543804477666</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4840,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.901079302655</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1731.901079302655</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.1322996943726</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>710.1322996943726</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>495.8438765125353</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="U10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="V10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="W10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="X10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.535689181137</v>
+        <v>576.4643184947033</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>880.8106280646855</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.3630803542126</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844523</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,13 +5314,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1493.756945976139</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1269.971530765645</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>980.8428919792032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>726.1584037733163</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>436.7412337363557</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.4872769945463</v>
+        <v>634.6737565393106</v>
       </c>
       <c r="C19" t="n">
-        <v>782.4872769945463</v>
+        <v>465.7375736114037</v>
       </c>
       <c r="D19" t="n">
-        <v>632.3706375822105</v>
+        <v>465.7375736114037</v>
       </c>
       <c r="E19" t="n">
-        <v>632.3706375822105</v>
+        <v>317.8244800290106</v>
       </c>
       <c r="F19" t="n">
-        <v>485.4806900843001</v>
+        <v>170.9345325311002</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3053684041207</v>
+        <v>170.9345325311002</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>170.9345325311002</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>964.135741824786</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>964.135741824786</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.135741824786</v>
+        <v>816.3222213695503</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089419</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154059</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V22" t="n">
-        <v>727.647686332073</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>4071.38955607529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C25" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D25" t="n">
-        <v>542.2642714241468</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E25" t="n">
-        <v>394.3511778417537</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="F25" t="n">
-        <v>247.4612303438434</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6181,16 +6183,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>413.0432218861031</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>641.0327727841204</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W28" t="n">
-        <v>641.0327727841204</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X28" t="n">
-        <v>413.0432218861031</v>
+        <v>905.1671280158234</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.0432218861031</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6558,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>3752.338450124968</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>3752.338450124968</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>3752.338450124968</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,22 +6691,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6724,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4230.423978142507</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>4061.4877952146</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>3911.371155802264</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>3763.458062219871</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>3616.568114721961</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>4741.167820987512</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014293</v>
+        <v>4452.03918220107</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014293</v>
+        <v>4197.354693995183</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014293</v>
+        <v>3907.937523958222</v>
       </c>
       <c r="X34" t="n">
-        <v>4632.865022116276</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y34" t="n">
-        <v>4412.072442972746</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7433,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>921.193690363625</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7606,13 +7608,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.107328986838</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>1211.314749843308</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7734,13 +7736,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954967</v>
+        <v>561.6946978510159</v>
       </c>
       <c r="C46" t="n">
-        <v>130.9054447954967</v>
+        <v>392.758514923109</v>
       </c>
       <c r="D46" t="n">
-        <v>130.9054447954967</v>
+        <v>392.758514923109</v>
       </c>
       <c r="E46" t="n">
-        <v>130.9054447954967</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>130.9054447954967</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9054447954967</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9054447954967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954967</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954967</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>109.6822920936404</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>192.8130786476576</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>41.4456796574116</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>37.43897880416574</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>111.569832427658</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>18.01446838604238</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>123.4555516459143</v>
       </c>
       <c r="G25" t="n">
-        <v>128.1711164329276</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>218.5030563721467</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>205.5101494951404</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>256.8997558443499</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.18267187568728</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.65497486614629</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851170036</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>112.2167382934144</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>113.1810272501824</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="14">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852505</v>
@@ -26350,10 +26352,10 @@
         <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26436,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26445,16 +26447,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="M4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459086</v>
+        <v>-345834.7631459085</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.1160686361</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
         <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272333</v>
+        <v>-170087.0983272329</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496629</v>
+        <v>355072.9381496631</v>
       </c>
       <c r="G6" t="n">
         <v>355072.938149663</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.938149663</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496631</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570702</v>
+        <v>178649.7189570703</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.9381496632</v>
+        <v>355072.938149663</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.9381496633</v>
+        <v>355072.938149663</v>
       </c>
       <c r="M6" t="n">
         <v>220271.922915826</v>
@@ -26558,10 +26560,10 @@
         <v>355072.9381496632</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.938149663</v>
+        <v>355072.9381496633</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496629</v>
+        <v>355072.9381496631</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26826,7 +26828,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>262.1662084423644</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>34.89145802150637</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>51.97117195339646</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>42.79074704179786</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16.73665413220886</v>
+        <v>162.7227168552664</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>60.84065321823553</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>157.2152563903647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>66.90748812322909</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>145.6071988424167</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28025,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.30603228797307</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>104.009836358385</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>621.6037559756878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1634877.681686243</v>
+        <v>1627860.666794533</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>151.6179615784306</v>
+        <v>284.5361525213356</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.91385451133345</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>175.7939063102969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>105.6875942894366</v>
       </c>
       <c r="H5" t="n">
-        <v>161.2000559090907</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>95.33023562355962</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>257.0152846411281</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.383907948945279</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>121.0252690996993</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>83.74023526181291</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.350999845631</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>122.4686819962961</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.98026666010625</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.86413021891121</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.96549637701692</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>54.92969084765561</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.07450385695442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>29.6232424922411</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>33.25293539638682</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1507.089911220684</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1138.127394280272</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1138.127394280272</v>
       </c>
       <c r="E2" t="n">
-        <v>945.273062713798</v>
+        <v>752.3391416820282</v>
       </c>
       <c r="F2" t="n">
-        <v>534.2871579241905</v>
+        <v>341.3532368924206</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>352.226339726024</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>205.3363922281136</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1199.187010018807</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D5" t="n">
-        <v>1199.187010018807</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.187010018807</v>
+        <v>571.6840323568777</v>
       </c>
       <c r="F5" t="n">
-        <v>788.2011052291998</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="G5" t="n">
-        <v>370.2372971273867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>319.1723320447962</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2361491168893</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>150.2361491168893</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>150.2361491168893</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>150.2361491168893</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>150.2361491168893</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>313.5543804477666</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2108.906329475425</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576.4643184947033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>576.4643184947033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>576.4643184947033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>576.4643184947033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>576.4643184947033</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>576.4643184947033</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>576.4643184947033</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>576.4643184947033</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>841.7907383782456</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>672.8545554503387</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380029</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>522.7379160380029</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>375.8479685400926</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>207.6726468599132</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>207.6726468599132</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.6737565393106</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C19" t="n">
-        <v>465.7375736114037</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>465.7375736114037</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>317.8244800290106</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>170.9345325311002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>170.9345325311002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>170.9345325311002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>816.3222213695503</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.3222213695503</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4071.38955607529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4071.38955607529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4071.38955607529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>4071.38955607529</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>4071.38955607529</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>4071.38955607529</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>4071.38955607529</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,22 +5974,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305959</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>437.6964226305959</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>287.5797832182601</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>287.5797832182601</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305959</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>905.1671280158234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.9605584633442</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690279</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>3752.338450124968</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3752.338450124968</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3752.338450124968</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4741.167820987512</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.03918220107</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995183</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,64 +7162,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.499100520942</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.6946978510159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.758514923109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.758514923109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>743.3431626812556</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978223</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>96.09174492012438</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>1.068245618640958</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.77813910233171</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>37.43897880416574</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>111.569832427658</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.4555516459143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>163.6549625044392</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>205.5101494951404</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>256.8997558443499</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.2167382934144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>96.27094379216355</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1810272501824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930256</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="11">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26322,16 +26322,16 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852504</v>
-      </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852506</v>
@@ -26340,22 +26340,22 @@
         <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26444,13 +26444,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.0983272329</v>
+        <v>-171061.6895869545</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496631</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899415</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899417</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899416</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.7189570703</v>
+        <v>177675.1276973487</v>
       </c>
       <c r="K6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899416</v>
       </c>
       <c r="L6" t="n">
-        <v>355072.938149663</v>
+        <v>354098.3468899414</v>
       </c>
       <c r="M6" t="n">
-        <v>220271.922915826</v>
+        <v>219297.3316561042</v>
       </c>
       <c r="N6" t="n">
-        <v>355072.9381496632</v>
+        <v>354098.3468899413</v>
       </c>
       <c r="O6" t="n">
-        <v>355072.9381496633</v>
+        <v>354098.3468899413</v>
       </c>
       <c r="P6" t="n">
-        <v>355072.9381496631</v>
+        <v>354098.3468899413</v>
       </c>
     </row>
   </sheetData>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>262.1662084423644</v>
+        <v>129.2480174994594</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>152.3959477477175</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.79074704179786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>308.0965757313584</v>
       </c>
       <c r="H5" t="n">
-        <v>162.7227168552664</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>60.84065321823553</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>221.5335557028738</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>66.90748812322909</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>345.8570607684677</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>104.009836358385</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,13 +35737,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468888</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627860.666794533</v>
+        <v>1632799.929643564</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2077556678434</v>
       </c>
       <c r="G2" t="n">
-        <v>284.5361525213356</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.91385451133345</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>68.30802514717975</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>105.6875942894366</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>73.83379434090349</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>84.67670117615879</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>3.383907948945279</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.74023526181291</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>91.0972023962067</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.350999845631</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>67.84064279592619</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>122.4686819962961</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>24.40666873704779</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.2425576766694</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>113.380453944544</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.92969084765561</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>105.9495739306891</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>84.03859061113666</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113184</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>31.27200878560247</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.78559640792031</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1507.089911220684</v>
+        <v>1924.457674141023</v>
       </c>
       <c r="C2" t="n">
-        <v>1138.127394280272</v>
+        <v>1555.495157200611</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.127394280272</v>
+        <v>1197.229458593861</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3391416820282</v>
+        <v>811.4412059956167</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3532368924206</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1893.689751284806</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084171</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E4" t="n">
-        <v>352.226339726024</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>205.3363922281136</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>415.4256366790474</v>
       </c>
     </row>
     <row r="5">
@@ -4552,16 +4552,16 @@
         <v>957.4722849551219</v>
       </c>
       <c r="E5" t="n">
-        <v>571.6840323568777</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="F5" t="n">
-        <v>160.6981275672701</v>
+        <v>546.4863801655144</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>128.5225720637013</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>128.5225720637013</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>139.4750032104238</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>484.0375086983739</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="14">
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483981</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>841.7907383782456</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C16" t="n">
-        <v>672.8545554503387</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>522.7379160380029</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>522.7379160380029</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>375.8479685400926</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>207.6726468599132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>207.6726468599132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1430.390368743836</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1430.390368743836</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1430.390368743836</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>1140.973198706875</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.231782352015</v>
+        <v>912.983647808858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.439203208485</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.9294177607301</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
         <v>244.1070389581962</v>
@@ -5661,16 +5661,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344999</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.5778825909698</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1340.085404217832</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.085404217832</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1050.956765431391</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255036</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>592.8217113586345</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1073.395445980185</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W25" t="n">
-        <v>531.109187020113</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X25" t="n">
-        <v>303.1196361220957</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6253,7 +6253,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1137.212010704854</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,31 +6685,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7171,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.1367719529251</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>327.7288535116511</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8389060137407</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.1367719529251</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>199.6230805871082</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462374</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>29.47535963978223</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>158.8724419039331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.09174492012438</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.14961870242114</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>1.068245618640958</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>153.7069182624631</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>44.77813910233171</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>194.177984615047</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>40.67825230693387</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>172.8568984540334</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>163.6549625044392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>180.5734244059019</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>95.79338957080064</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>6.267320147927819</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.4376466034347</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>83.70797205545728</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.27094379216355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>213.0220289556701</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920753.6512930254</v>
+        <v>920753.6512930255</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930254</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930252</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852506</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852507</v>
-      </c>
-      <c r="I2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26441,10 +26441,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345834.7631459085</v>
+        <v>-345834.7631459087</v>
       </c>
       <c r="C6" t="n">
         <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
-        <v>244133.1160686359</v>
+        <v>244133.116068636</v>
       </c>
       <c r="E6" t="n">
-        <v>-171061.6895869545</v>
+        <v>-170184.5574532056</v>
       </c>
       <c r="F6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236908</v>
       </c>
       <c r="G6" t="n">
-        <v>354098.3468899415</v>
+        <v>354975.4790236911</v>
       </c>
       <c r="H6" t="n">
-        <v>354098.3468899417</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="I6" t="n">
-        <v>354098.3468899416</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="J6" t="n">
-        <v>177675.1276973487</v>
+        <v>178552.2598310981</v>
       </c>
       <c r="K6" t="n">
-        <v>354098.3468899416</v>
+        <v>354975.479023691</v>
       </c>
       <c r="L6" t="n">
-        <v>354098.3468899414</v>
+        <v>354975.479023691</v>
       </c>
       <c r="M6" t="n">
-        <v>219297.3316561042</v>
+        <v>220174.4637898537</v>
       </c>
       <c r="N6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.479023691</v>
       </c>
       <c r="O6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.4790236911</v>
       </c>
       <c r="P6" t="n">
-        <v>354098.3468899413</v>
+        <v>354975.479023691</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>222.668290073868</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2480174994594</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>152.3959477477175</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>150.276628204915</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>308.0965757313584</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>78.09752190395776</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>221.5335557028738</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>329.1074688446362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>345.8570607684677</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750475</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.023574855732</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>332.6095128747336</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>71.38553859468888</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36919,7 +36919,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36928,7 +36928,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599573</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38034,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
